--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1027.450993734603</v>
+        <v>1100.35247267522</v>
       </c>
       <c r="AB2" t="n">
-        <v>1405.803777566443</v>
+        <v>1505.550797239259</v>
       </c>
       <c r="AC2" t="n">
-        <v>1271.635838093495</v>
+        <v>1361.863142204558</v>
       </c>
       <c r="AD2" t="n">
-        <v>1027450.993734603</v>
+        <v>1100352.47267522</v>
       </c>
       <c r="AE2" t="n">
-        <v>1405803.777566443</v>
+        <v>1505550.797239259</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336441404999812e-06</v>
+        <v>2.259320504297668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.16059027777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1271635.838093495</v>
+        <v>1361863.142204558</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>477.0480567949492</v>
+        <v>529.1204778178534</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.7181971817729</v>
+        <v>723.9659808983923</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.4236885384871</v>
+        <v>654.871683774085</v>
       </c>
       <c r="AD3" t="n">
-        <v>477048.0567949492</v>
+        <v>529120.4778178533</v>
       </c>
       <c r="AE3" t="n">
-        <v>652718.1971817729</v>
+        <v>723965.9808983924</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.11100601977405e-06</v>
+        <v>3.568760416527195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.598524305555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>590423.6885384871</v>
+        <v>654871.683774085</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.5565677459637</v>
+        <v>414.1292532182665</v>
       </c>
       <c r="AB4" t="n">
-        <v>509.7483320258004</v>
+        <v>566.6299143464468</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.0986666535345</v>
+        <v>512.5515505913006</v>
       </c>
       <c r="AD4" t="n">
-        <v>372556.5677459637</v>
+        <v>414129.2532182665</v>
       </c>
       <c r="AE4" t="n">
-        <v>509748.3320258004</v>
+        <v>566629.9143464467</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.401561116347992e-06</v>
+        <v>4.059958223525543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH4" t="n">
-        <v>461098.6666535345</v>
+        <v>512551.5505913006</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>368.4758733123097</v>
+        <v>410.0485587846125</v>
       </c>
       <c r="AB5" t="n">
-        <v>504.1649458741422</v>
+        <v>561.0465281947885</v>
       </c>
       <c r="AC5" t="n">
-        <v>456.048151039859</v>
+        <v>507.5010349776251</v>
       </c>
       <c r="AD5" t="n">
-        <v>368475.8733123097</v>
+        <v>410048.5587846125</v>
       </c>
       <c r="AE5" t="n">
-        <v>504164.9458741422</v>
+        <v>561046.5281947885</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.419207296699045e-06</v>
+        <v>4.089789966945429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.374565972222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>456048.151039859</v>
+        <v>507501.0349776251</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>704.2533887802934</v>
+        <v>774.8020228327425</v>
       </c>
       <c r="AB2" t="n">
-        <v>963.5905559959381</v>
+        <v>1060.118309492572</v>
       </c>
       <c r="AC2" t="n">
-        <v>871.6268257395243</v>
+        <v>958.9421059199929</v>
       </c>
       <c r="AD2" t="n">
-        <v>704253.3887802934</v>
+        <v>774802.0228327425</v>
       </c>
       <c r="AE2" t="n">
-        <v>963590.555995938</v>
+        <v>1060118.309492572</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.648623967442511e-06</v>
+        <v>2.855072161538043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.71267361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>871626.8257395243</v>
+        <v>958942.1059199929</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.4475638317444</v>
+        <v>415.8150621964734</v>
       </c>
       <c r="AB3" t="n">
-        <v>500.0214792432472</v>
+        <v>568.9365125630725</v>
       </c>
       <c r="AC3" t="n">
-        <v>452.3001310488248</v>
+        <v>514.6380103114626</v>
       </c>
       <c r="AD3" t="n">
-        <v>365447.5638317444</v>
+        <v>415815.0621964734</v>
       </c>
       <c r="AE3" t="n">
-        <v>500021.4792432472</v>
+        <v>568936.5125630725</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.384994529735657e-06</v>
+        <v>4.130312079492583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>452300.1310488248</v>
+        <v>514638.0103114626</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>348.7853134319631</v>
+        <v>389.2329256619752</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.2234531596588</v>
+        <v>532.5656606354747</v>
       </c>
       <c r="AC4" t="n">
-        <v>431.6779165774233</v>
+        <v>481.7383414450234</v>
       </c>
       <c r="AD4" t="n">
-        <v>348785.313431963</v>
+        <v>389232.9256619752</v>
       </c>
       <c r="AE4" t="n">
-        <v>477223.4531596588</v>
+        <v>532565.6606354747</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.45221828516011e-06</v>
+        <v>4.246729574625893e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.548177083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>431677.9165774233</v>
+        <v>481738.3414450234</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.3217568510195</v>
+        <v>368.8985849145962</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.383091672779</v>
+        <v>504.7433185371103</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.1626702920969</v>
+        <v>456.5713246276247</v>
       </c>
       <c r="AD2" t="n">
-        <v>323321.7568510195</v>
+        <v>368898.5849145962</v>
       </c>
       <c r="AE2" t="n">
-        <v>442383.091672779</v>
+        <v>504743.3185371103</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.397902535630723e-06</v>
+        <v>4.537347601387468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.752604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>400162.670292097</v>
+        <v>456571.3246276247</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.7455958919923</v>
+        <v>420.2287497868546</v>
       </c>
       <c r="AB2" t="n">
-        <v>510.0069686745298</v>
+        <v>574.975514642386</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.3326193835081</v>
+        <v>520.1006585081192</v>
       </c>
       <c r="AD2" t="n">
-        <v>372745.5958919923</v>
+        <v>420228.7497868546</v>
       </c>
       <c r="AE2" t="n">
-        <v>510006.9686745299</v>
+        <v>574975.514642386</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.289873039298329e-06</v>
+        <v>4.171651374927849e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.772135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>461332.619383508</v>
+        <v>520100.6585081192</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>331.5480056772283</v>
+        <v>369.5346183016692</v>
       </c>
       <c r="AB3" t="n">
-        <v>453.638608233283</v>
+        <v>505.6135674771162</v>
       </c>
       <c r="AC3" t="n">
-        <v>410.343976149283</v>
+        <v>457.3585182301984</v>
       </c>
       <c r="AD3" t="n">
-        <v>331548.0056772283</v>
+        <v>369534.6183016692</v>
       </c>
       <c r="AE3" t="n">
-        <v>453638.608233283</v>
+        <v>505613.5674771162</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.462987399827029e-06</v>
+        <v>4.487028143737965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.084201388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>410343.976149283</v>
+        <v>457358.5182301984</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>334.2931383611095</v>
+        <v>387.0236973089418</v>
       </c>
       <c r="AB2" t="n">
-        <v>457.3946198780759</v>
+        <v>529.5428969385782</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.7415193142925</v>
+        <v>479.0040660728833</v>
       </c>
       <c r="AD2" t="n">
-        <v>334293.1383611095</v>
+        <v>387023.6973089419</v>
       </c>
       <c r="AE2" t="n">
-        <v>457394.6198780759</v>
+        <v>529542.8969385782</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.279315687103894e-06</v>
+        <v>4.466724350143281e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>413741.5193142925</v>
+        <v>479004.0660728833</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>776.5713242012217</v>
+        <v>847.6306774307421</v>
       </c>
       <c r="AB2" t="n">
-        <v>1062.539145680993</v>
+        <v>1159.765687687036</v>
       </c>
       <c r="AC2" t="n">
-        <v>961.1319009002556</v>
+        <v>1049.07927819555</v>
       </c>
       <c r="AD2" t="n">
-        <v>776571.3242012217</v>
+        <v>847630.6774307422</v>
       </c>
       <c r="AE2" t="n">
-        <v>1062539.145680993</v>
+        <v>1159765.687687036</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.566620297988191e-06</v>
+        <v>2.695340781646662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.25954861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>961131.9009002555</v>
+        <v>1049079.27819555</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>389.1393234144483</v>
+        <v>439.9325150099571</v>
       </c>
       <c r="AB3" t="n">
-        <v>532.4375899109688</v>
+        <v>601.9350754894066</v>
       </c>
       <c r="AC3" t="n">
-        <v>481.6224936107159</v>
+        <v>544.4872367058814</v>
       </c>
       <c r="AD3" t="n">
-        <v>389139.3234144483</v>
+        <v>439932.5150099571</v>
       </c>
       <c r="AE3" t="n">
-        <v>532437.5899109688</v>
+        <v>601935.0754894066</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.315328306228163e-06</v>
+        <v>3.983478839570545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.971354166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>481622.493610716</v>
+        <v>544487.2367058814</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.5312042751772</v>
+        <v>393.148778889221</v>
       </c>
       <c r="AB4" t="n">
-        <v>482.348746268385</v>
+        <v>537.9235037762444</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.3140589052468</v>
+        <v>486.584839556218</v>
       </c>
       <c r="AD4" t="n">
-        <v>352531.2042751772</v>
+        <v>393148.778889221</v>
       </c>
       <c r="AE4" t="n">
-        <v>482348.746268385</v>
+        <v>537923.5037762444</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.446940874795021e-06</v>
+        <v>4.2099157904329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.489583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>436314.0589052468</v>
+        <v>486584.839556218</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.6306777288885</v>
+        <v>401.1649384258239</v>
       </c>
       <c r="AB2" t="n">
-        <v>478.3801178855527</v>
+        <v>548.891566902224</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.7241908452672</v>
+        <v>496.5061261312276</v>
       </c>
       <c r="AD2" t="n">
-        <v>349630.6777288885</v>
+        <v>401164.9384258239</v>
       </c>
       <c r="AE2" t="n">
-        <v>478380.1178855528</v>
+        <v>548891.566902224</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.169489010375083e-06</v>
+        <v>4.349088656581375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>432724.1908452671</v>
+        <v>496506.1261312276</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.8122297240776</v>
+        <v>576.8835779542032</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.175978140656</v>
+        <v>789.3175616642085</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.2525163672622</v>
+        <v>713.9862013931314</v>
       </c>
       <c r="AD2" t="n">
-        <v>527812.2297240776</v>
+        <v>576883.5779542032</v>
       </c>
       <c r="AE2" t="n">
-        <v>722175.9781406559</v>
+        <v>789317.5616642085</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.937027560901708e-06</v>
+        <v>3.430619744869943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.14800347222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>653252.5163672621</v>
+        <v>713986.2013931314</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.7289090103059</v>
+        <v>382.714826877309</v>
       </c>
       <c r="AB3" t="n">
-        <v>456.6226163882642</v>
+        <v>523.6473103200709</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.0431947540346</v>
+        <v>473.6711459667385</v>
       </c>
       <c r="AD3" t="n">
-        <v>333728.9090103059</v>
+        <v>382714.826877309</v>
       </c>
       <c r="AE3" t="n">
-        <v>456622.6163882642</v>
+        <v>523647.3103200709</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47012063276148e-06</v>
+        <v>4.374767187627111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.743489583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>413043.1947540346</v>
+        <v>473671.1459667385</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>643.4917000441957</v>
+        <v>703.4195988611287</v>
       </c>
       <c r="AB2" t="n">
-        <v>880.4537328506905</v>
+        <v>962.449727844322</v>
       </c>
       <c r="AC2" t="n">
-        <v>796.4244643119949</v>
+        <v>870.5948766255362</v>
       </c>
       <c r="AD2" t="n">
-        <v>643491.7000441956</v>
+        <v>703419.5988611288</v>
       </c>
       <c r="AE2" t="n">
-        <v>880453.7328506905</v>
+        <v>962449.727844322</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.740628327004117e-06</v>
+        <v>3.035503812014584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.15711805555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>796424.464311995</v>
+        <v>870594.8766255362</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>347.1105842517462</v>
+        <v>397.0362018663029</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.9320148114491</v>
+        <v>543.2424473944853</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.6051698891129</v>
+        <v>491.3961506607185</v>
       </c>
       <c r="AD3" t="n">
-        <v>347110.5842517462</v>
+        <v>397036.2018663029</v>
       </c>
       <c r="AE3" t="n">
-        <v>474932.0148114491</v>
+        <v>543242.4473944854</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.441384308752862e-06</v>
+        <v>4.257561054729618e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.667534722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>429605.1698891129</v>
+        <v>491396.1506607186</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>343.7573453448484</v>
+        <v>393.682962959405</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.3439654045716</v>
+        <v>538.6543979876081</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.4549974782601</v>
+        <v>487.2459782498657</v>
       </c>
       <c r="AD4" t="n">
-        <v>343757.3453448484</v>
+        <v>393682.962959405</v>
       </c>
       <c r="AE4" t="n">
-        <v>470343.9654045716</v>
+        <v>538654.3979876081</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.460299942599983e-06</v>
+        <v>4.290548268460899e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.600260416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>425454.9974782601</v>
+        <v>487245.9782498657</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>933.8781980289015</v>
+        <v>1006.154923949827</v>
       </c>
       <c r="AB2" t="n">
-        <v>1277.773350341505</v>
+        <v>1376.66555537062</v>
       </c>
       <c r="AC2" t="n">
-        <v>1155.824455151072</v>
+        <v>1245.27852692829</v>
       </c>
       <c r="AD2" t="n">
-        <v>933878.1980289015</v>
+        <v>1006154.923949827</v>
       </c>
       <c r="AE2" t="n">
-        <v>1277773.350341505</v>
+        <v>1376665.55537062</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.408674478417081e-06</v>
+        <v>2.394653251465751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.49869791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1155824.455151072</v>
+        <v>1245278.52692829</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.3425090102862</v>
+        <v>500.8590434289408</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.8102444202931</v>
+        <v>685.2974395609922</v>
       </c>
       <c r="AC3" t="n">
-        <v>556.1336175844172</v>
+        <v>619.8936137502877</v>
       </c>
       <c r="AD3" t="n">
-        <v>449342.5090102862</v>
+        <v>500859.0434289408</v>
       </c>
       <c r="AE3" t="n">
-        <v>614810.2444202931</v>
+        <v>685297.4395609922</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.179455075573407e-06</v>
+        <v>3.704929182084705e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.370659722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>556133.6175844171</v>
+        <v>619893.6137502877</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.3357340879462</v>
+        <v>403.6001840373231</v>
       </c>
       <c r="AB4" t="n">
-        <v>495.7637365035434</v>
+        <v>552.2235773833312</v>
       </c>
       <c r="AC4" t="n">
-        <v>448.4487413004189</v>
+        <v>499.5201342085239</v>
       </c>
       <c r="AD4" t="n">
-        <v>362335.7340879462</v>
+        <v>403600.1840373231</v>
       </c>
       <c r="AE4" t="n">
-        <v>495763.7365035434</v>
+        <v>552223.5773833311</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.428758836485143e-06</v>
+        <v>4.12872905268417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.409288194444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>448448.7413004189</v>
+        <v>499520.1342085239</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>364.2755245106169</v>
+        <v>405.5399744599937</v>
       </c>
       <c r="AB5" t="n">
-        <v>498.4178433373553</v>
+        <v>554.8776842171429</v>
       </c>
       <c r="AC5" t="n">
-        <v>450.849543903074</v>
+        <v>501.920936811179</v>
       </c>
       <c r="AD5" t="n">
-        <v>364275.524510617</v>
+        <v>405539.9744599938</v>
       </c>
       <c r="AE5" t="n">
-        <v>498417.8433373553</v>
+        <v>554877.6842171429</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.426217801549462e-06</v>
+        <v>4.124409461704106e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.41796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>450849.543903074</v>
+        <v>501920.936811179</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.2920327959353</v>
+        <v>472.2475132556847</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.5350777148052</v>
+        <v>646.1498817263173</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.1296246838023</v>
+        <v>584.4822438914115</v>
       </c>
       <c r="AD2" t="n">
-        <v>424292.0327959353</v>
+        <v>472247.5132556848</v>
       </c>
       <c r="AE2" t="n">
-        <v>580535.0777148051</v>
+        <v>646149.8817263173</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.164897153330958e-06</v>
+        <v>3.903821868593529e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.20616319444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>525129.6246838022</v>
+        <v>584482.2438914115</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.6443495467811</v>
+        <v>373.5997404979794</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.5609654646782</v>
+        <v>511.1756470066421</v>
       </c>
       <c r="AC3" t="n">
-        <v>403.0372522694713</v>
+        <v>462.389760695854</v>
       </c>
       <c r="AD3" t="n">
-        <v>325644.3495467812</v>
+        <v>373599.7404979795</v>
       </c>
       <c r="AE3" t="n">
-        <v>445560.9654646782</v>
+        <v>511175.6470066421</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.467593820633452e-06</v>
+        <v>4.449655589861861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.953993055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>403037.2522694713</v>
+        <v>462389.760695854</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>325.7392701278479</v>
+        <v>371.8272804246369</v>
       </c>
       <c r="AB2" t="n">
-        <v>445.6908399912944</v>
+        <v>508.7504889388752</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.1547317535471</v>
+        <v>460.1960563103439</v>
       </c>
       <c r="AD2" t="n">
-        <v>325739.2701278479</v>
+        <v>371827.2804246369</v>
       </c>
       <c r="AE2" t="n">
-        <v>445690.8399912944</v>
+        <v>508750.4889388751</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425115715283815e-06</v>
+        <v>4.524490754092666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.490017361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>403154.7317535471</v>
+        <v>460196.0563103439</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.8165611098357</v>
+        <v>372.9045714066248</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.164837039574</v>
+        <v>510.2244859871548</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.4880525923068</v>
+        <v>461.5293771491035</v>
       </c>
       <c r="AD3" t="n">
-        <v>326816.5611098357</v>
+        <v>372904.5714066248</v>
       </c>
       <c r="AE3" t="n">
-        <v>447164.837039574</v>
+        <v>510224.4859871548</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.428827735315081e-06</v>
+        <v>4.531416196950761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.476996527777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>404488.0525923067</v>
+        <v>461529.3771491036</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.8035977399396</v>
+        <v>376.5524596263826</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.9883205694105</v>
+        <v>515.2156875828973</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.660312430875</v>
+        <v>466.0442254697439</v>
       </c>
       <c r="AD2" t="n">
-        <v>331803.5977399396</v>
+        <v>376552.4596263826</v>
       </c>
       <c r="AE2" t="n">
-        <v>453988.3205694105</v>
+        <v>515215.6875828973</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.353428322818686e-06</v>
+        <v>4.525729938393138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>410660.312430875</v>
+        <v>466044.2254697439</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.1892675742868</v>
+        <v>431.9183939704336</v>
       </c>
       <c r="AB2" t="n">
-        <v>510.6140198436584</v>
+        <v>590.9698015250632</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.8817344410567</v>
+        <v>534.5684730988362</v>
       </c>
       <c r="AD2" t="n">
-        <v>373189.2675742868</v>
+        <v>431918.3939704336</v>
       </c>
       <c r="AE2" t="n">
-        <v>510614.0198436584</v>
+        <v>590969.8015250632</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987220794553526e-06</v>
+        <v>4.098840262244031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.86024305555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>461881.7344410567</v>
+        <v>534568.4730988361</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>578.1284562658125</v>
+        <v>637.5898120869369</v>
       </c>
       <c r="AB2" t="n">
-        <v>791.0208590903072</v>
+        <v>872.3785093746488</v>
       </c>
       <c r="AC2" t="n">
-        <v>715.5269385034761</v>
+        <v>789.1199288308593</v>
       </c>
       <c r="AD2" t="n">
-        <v>578128.4562658125</v>
+        <v>637589.8120869369</v>
       </c>
       <c r="AE2" t="n">
-        <v>791020.8590903073</v>
+        <v>872378.5093746488</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.836786108791345e-06</v>
+        <v>3.227160736019915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.63411458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>715526.9385034761</v>
+        <v>789119.9288308593</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.1080450584227</v>
+        <v>387.5738340547881</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.6143435231451</v>
+        <v>530.2956183045653</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.4630798606044</v>
+        <v>479.6849487681516</v>
       </c>
       <c r="AD3" t="n">
-        <v>338108.0450584227</v>
+        <v>387573.8340547881</v>
       </c>
       <c r="AE3" t="n">
-        <v>462614.3435231451</v>
+        <v>530295.6183045653</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.465559393406011e-06</v>
+        <v>4.331890593380367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.667534722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>418463.0798606044</v>
+        <v>479684.9487681516</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.1401027367872</v>
+        <v>388.6058917331524</v>
       </c>
       <c r="AB4" t="n">
-        <v>464.0264503698547</v>
+        <v>531.7077251512749</v>
       </c>
       <c r="AC4" t="n">
-        <v>419.7404172117683</v>
+        <v>480.9622861193155</v>
       </c>
       <c r="AD4" t="n">
-        <v>339140.1027367872</v>
+        <v>388605.8917331524</v>
       </c>
       <c r="AE4" t="n">
-        <v>464026.4503698547</v>
+        <v>531707.7251512748</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.466248729818274e-06</v>
+        <v>4.333101730263926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.665364583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>419740.4172117683</v>
+        <v>480962.2861193155</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>847.459577356265</v>
+        <v>929.3521498264463</v>
       </c>
       <c r="AB2" t="n">
-        <v>1159.531581016734</v>
+        <v>1271.580611515751</v>
       </c>
       <c r="AC2" t="n">
-        <v>1048.867514337291</v>
+        <v>1150.222742627285</v>
       </c>
       <c r="AD2" t="n">
-        <v>847459.5773562649</v>
+        <v>929352.1498264463</v>
       </c>
       <c r="AE2" t="n">
-        <v>1159531.581016734</v>
+        <v>1271580.611515751</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.484920319179156e-06</v>
+        <v>2.539048262718828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1048867.514337291</v>
+        <v>1150222.742627284</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>423.7545953164329</v>
+        <v>464.7863119146463</v>
       </c>
       <c r="AB3" t="n">
-        <v>579.7997320452818</v>
+        <v>635.9411368865366</v>
       </c>
       <c r="AC3" t="n">
-        <v>524.4644593729141</v>
+        <v>575.2478073310762</v>
       </c>
       <c r="AD3" t="n">
-        <v>423754.5953164329</v>
+        <v>464786.3119146462</v>
       </c>
       <c r="AE3" t="n">
-        <v>579799.7320452818</v>
+        <v>635941.1368865366</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.2471186834204e-06</v>
+        <v>3.84232252435978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.164496527777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>524464.4593729142</v>
+        <v>575247.8073310761</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.0732589119056</v>
+        <v>399.0196346555473</v>
       </c>
       <c r="AB4" t="n">
-        <v>489.9316299205516</v>
+        <v>545.9562676396087</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.1732427842947</v>
+        <v>493.8509677105179</v>
       </c>
       <c r="AD4" t="n">
-        <v>358073.2589119056</v>
+        <v>399019.6346555473</v>
       </c>
       <c r="AE4" t="n">
-        <v>489931.6299205517</v>
+        <v>545956.2676396087</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.434916313255238e-06</v>
+        <v>4.163435542759613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.45703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>443173.2427842947</v>
+        <v>493850.9677105179</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>359.0261545435139</v>
+        <v>399.9725302871555</v>
       </c>
       <c r="AB5" t="n">
-        <v>491.2354237625065</v>
+        <v>547.2600614815635</v>
       </c>
       <c r="AC5" t="n">
-        <v>444.3526043718596</v>
+        <v>495.0303292980827</v>
       </c>
       <c r="AD5" t="n">
-        <v>359026.154543514</v>
+        <v>399972.5302871555</v>
       </c>
       <c r="AE5" t="n">
-        <v>491235.4237625065</v>
+        <v>547260.0614815635</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.435770370187281e-06</v>
+        <v>4.164895884935257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.454861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>444352.6043718596</v>
+        <v>495030.3292980827</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.1880338117629</v>
+        <v>509.258708303345</v>
       </c>
       <c r="AB2" t="n">
-        <v>596.8117111191859</v>
+        <v>696.790231609213</v>
       </c>
       <c r="AC2" t="n">
-        <v>539.8528390404674</v>
+        <v>630.2895498556612</v>
       </c>
       <c r="AD2" t="n">
-        <v>436188.0338117629</v>
+        <v>509258.708303345</v>
       </c>
       <c r="AE2" t="n">
-        <v>596811.7111191859</v>
+        <v>696790.231609213</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.6618492764724e-06</v>
+        <v>3.562108431405413e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.92230902777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>539852.8390404674</v>
+        <v>630289.5498556612</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.0832723501704</v>
+        <v>384.8039000249752</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.5804484108197</v>
+        <v>526.5056723641105</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.4324196502271</v>
+        <v>476.2567099490312</v>
       </c>
       <c r="AD2" t="n">
-        <v>338083.2723501704</v>
+        <v>384803.9000249752</v>
       </c>
       <c r="AE2" t="n">
-        <v>462580.4484108196</v>
+        <v>526505.6723641105</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402831634877046e-06</v>
+        <v>4.42705518047467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.437934027777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>418432.4196502271</v>
+        <v>476256.7099490312</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.7637958493473</v>
+        <v>375.4844235241521</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.8291295161075</v>
+        <v>513.7543534693983</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.8980687342379</v>
+        <v>464.722359033042</v>
       </c>
       <c r="AD3" t="n">
-        <v>328763.7958493473</v>
+        <v>375484.4235241521</v>
       </c>
       <c r="AE3" t="n">
-        <v>449829.1295161075</v>
+        <v>513754.3534693983</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449234890319846e-06</v>
+        <v>4.512550048037227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.259982638888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>406898.0687342379</v>
+        <v>464722.359033042</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>469.8138483705946</v>
+        <v>528.0110929614373</v>
       </c>
       <c r="AB2" t="n">
-        <v>642.8200340648198</v>
+        <v>722.4480715952383</v>
       </c>
       <c r="AC2" t="n">
-        <v>581.4701922172569</v>
+        <v>653.4986416044247</v>
       </c>
       <c r="AD2" t="n">
-        <v>469813.8483705946</v>
+        <v>528011.0929614373</v>
       </c>
       <c r="AE2" t="n">
-        <v>642820.0340648198</v>
+        <v>722448.0715952383</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046661591119415e-06</v>
+        <v>3.656211570690997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.66840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>581470.1922172569</v>
+        <v>653498.6416044247</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>329.2643756871979</v>
+        <v>377.7478560371381</v>
       </c>
       <c r="AB3" t="n">
-        <v>450.5140449342784</v>
+        <v>516.8512816892609</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.5176167861833</v>
+        <v>467.5237207701668</v>
       </c>
       <c r="AD3" t="n">
-        <v>329264.3756871978</v>
+        <v>377747.8560371381</v>
       </c>
       <c r="AE3" t="n">
-        <v>450514.0449342785</v>
+        <v>516851.2816892609</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.47330097884539e-06</v>
+        <v>4.41837170145451e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>407517.6167861833</v>
+        <v>467523.7207701668</v>
       </c>
     </row>
   </sheetData>
